--- a/rosters/2023/Phoenix/Phoenix.xlsx
+++ b/rosters/2023/Phoenix/Phoenix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>No.</t>
   </si>
@@ -46,9 +46,6 @@
     <t>bbref url</t>
   </si>
   <si>
-    <t>Mikal Bridges</t>
-  </si>
-  <si>
     <t>Damion Lee</t>
   </si>
   <si>
@@ -58,15 +55,21 @@
     <t>Deandre Ayton</t>
   </si>
   <si>
+    <t>Jock Landale</t>
+  </si>
+  <si>
     <t>Josh Okogie</t>
   </si>
   <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
     <t>Bismack Biyombo</t>
   </si>
   <si>
+    <t>Ish Wainright (TW)</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
+  </si>
+  <si>
     <t>Devin Booker</t>
   </si>
   <si>
@@ -76,33 +79,24 @@
     <t>Cameron Payne</t>
   </si>
   <si>
-    <t>Duane Washington Jr. (TW)</t>
-  </si>
-  <si>
-    <t>Ish Wainright (TW)</t>
-  </si>
-  <si>
-    <t>Chris Paul</t>
-  </si>
-  <si>
-    <t>Dario Šarić</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Saben Lee</t>
-  </si>
-  <si>
-    <t>Jae Crowder</t>
+    <t>Saben Lee (TW)</t>
+  </si>
+  <si>
+    <t>Darius Bazley</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
   <si>
     <t>SF</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -112,42 +106,36 @@
     <t>PF</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>6-8</t>
+    <t>6-0</t>
   </si>
   <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>6-0</t>
+    <t>6-2</t>
   </si>
   <si>
     <t>6-10</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>August 30, 1996</t>
-  </si>
-  <si>
     <t>October 21, 1992</t>
   </si>
   <si>
@@ -157,15 +145,21 @@
     <t>July 23, 1998</t>
   </si>
   <si>
+    <t>October 25, 1995</t>
+  </si>
+  <si>
     <t>September 1, 1998</t>
   </si>
   <si>
-    <t>October 25, 1995</t>
-  </si>
-  <si>
     <t>August 28, 1992</t>
   </si>
   <si>
+    <t>September 12, 1994</t>
+  </si>
+  <si>
+    <t>May 6, 1985</t>
+  </si>
+  <si>
     <t>October 30, 1996</t>
   </si>
   <si>
@@ -175,25 +169,16 @@
     <t>August 8, 1994</t>
   </si>
   <si>
-    <t>March 24, 2000</t>
-  </si>
-  <si>
-    <t>September 12, 1994</t>
-  </si>
-  <si>
-    <t>May 6, 1985</t>
-  </si>
-  <si>
-    <t>April 8, 1994</t>
-  </si>
-  <si>
-    <t>March 3, 1996</t>
-  </si>
-  <si>
     <t>June 23, 1999</t>
   </si>
   <si>
-    <t>July 6, 1990</t>
+    <t>June 12, 2000</t>
+  </si>
+  <si>
+    <t>September 29, 1988</t>
+  </si>
+  <si>
+    <t>September 5, 1993</t>
   </si>
   <si>
     <t>us</t>
@@ -202,24 +187,15 @@
     <t>bs</t>
   </si>
   <si>
+    <t>au</t>
+  </si>
+  <si>
     <t>ng</t>
   </si>
   <si>
-    <t>au</t>
-  </si>
-  <si>
     <t>cd</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>Villanova</t>
-  </si>
-  <si>
     <t>Drexel, Louisville</t>
   </si>
   <si>
@@ -229,10 +205,16 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
-    <t>Saint Mary's</t>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
   </si>
   <si>
     <t>Kentucky</t>
@@ -244,25 +226,13 @@
     <t>Murray State</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>Pitt, UNC</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/bridgmi01.html</t>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>NC State</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/leeda03.html</t>
@@ -274,15 +244,21 @@
     <t>https://www.basketball-reference.com/players/a/aytonde01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/landajo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/o/okogijo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/landajo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/biyombi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wainris01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/p/paulch01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bookede01.html</t>
   </si>
   <si>
@@ -292,25 +268,16 @@
     <t>https://www.basketball-reference.com/players/p/payneca01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/washidu02.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/wainris01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/paulch01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/saricda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/johnsca02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/leesa01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/crowdja01.html</t>
+    <t>https://www.basketball-reference.com/players/b/bazleda01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/d/duranke01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/warretj01.html</t>
   </si>
 </sst>
 </file>
@@ -681,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -759,34 +726,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -794,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -803,25 +770,25 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -829,34 +796,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,28 +837,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -899,34 +866,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,31 +898,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -966,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -975,25 +942,25 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1001,34 +968,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1036,34 +1003,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1071,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1080,25 +1047,25 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1106,203 +1073,127 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
         <v>55</v>
       </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
       <c r="I14">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>23</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17">
-        <v>183</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>235</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1322,8 +1213,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Phoenix/Phoenix.xlsx
+++ b/rosters/2023/Phoenix/Phoenix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>No.</t>
   </si>
@@ -82,15 +82,18 @@
     <t>Saben Lee (TW)</t>
   </si>
   <si>
+    <t>T.J. Warren</t>
+  </si>
+  <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
     <t>Darius Bazley</t>
   </si>
   <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>T.J. Warren</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -172,15 +175,18 @@
     <t>June 23, 1999</t>
   </si>
   <si>
+    <t>September 5, 1993</t>
+  </si>
+  <si>
+    <t>February 5, 1991</t>
+  </si>
+  <si>
     <t>June 12, 2000</t>
   </si>
   <si>
     <t>September 29, 1988</t>
   </si>
   <si>
-    <t>September 5, 1993</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -229,12 +235,15 @@
     <t>Vanderbilt</t>
   </si>
   <si>
+    <t>NC State</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>NC State</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/leeda03.html</t>
   </si>
   <si>
@@ -271,13 +280,16 @@
     <t>https://www.basketball-reference.com/players/l/leesa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/warretj01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/r/rosste01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/bazleda01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/d/duranke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/warretj01.html</t>
   </si>
 </sst>
 </file>
@@ -648,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,28 +709,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -732,28 +744,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -767,28 +779,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -802,28 +814,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -837,28 +849,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -872,25 +884,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>255</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7">
         <v>11</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -904,28 +916,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -939,28 +951,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -974,28 +986,28 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1009,28 +1021,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>190</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1044,28 +1056,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>183</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1079,63 +1091,72 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>183</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1143,25 +1164,25 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1172,28 +1193,57 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>240</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1213,6 +1263,7 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Phoenix/Phoenix.xlsx
+++ b/rosters/2023/Phoenix/Phoenix.xlsx
@@ -61,39 +61,39 @@
     <t>Josh Okogie</t>
   </si>
   <si>
+    <t>Ish Wainright</t>
+  </si>
+  <si>
     <t>Bismack Biyombo</t>
   </si>
   <si>
-    <t>Ish Wainright (TW)</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
     <t>Devin Booker</t>
   </si>
   <si>
+    <t>Cameron Payne</t>
+  </si>
+  <si>
     <t>Landry Shamet</t>
   </si>
   <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
     <t>Saben Lee (TW)</t>
   </si>
   <si>
+    <t>Terrence Ross</t>
+  </si>
+  <si>
     <t>T.J. Warren</t>
   </si>
   <si>
-    <t>Terrence Ross</t>
+    <t>Kevin Durant</t>
   </si>
   <si>
     <t>Darius Bazley</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>6-4</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-6</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
@@ -154,39 +154,39 @@
     <t>September 1, 1998</t>
   </si>
   <si>
+    <t>September 12, 1994</t>
+  </si>
+  <si>
     <t>August 28, 1992</t>
   </si>
   <si>
-    <t>September 12, 1994</t>
-  </si>
-  <si>
     <t>May 6, 1985</t>
   </si>
   <si>
     <t>October 30, 1996</t>
   </si>
   <si>
+    <t>August 8, 1994</t>
+  </si>
+  <si>
     <t>March 13, 1997</t>
   </si>
   <si>
-    <t>August 8, 1994</t>
-  </si>
-  <si>
     <t>June 23, 1999</t>
   </si>
   <si>
+    <t>February 5, 1991</t>
+  </si>
+  <si>
     <t>September 5, 1993</t>
   </si>
   <si>
-    <t>February 5, 1991</t>
+    <t>September 29, 1988</t>
   </si>
   <si>
     <t>June 12, 2000</t>
   </si>
   <si>
-    <t>September 29, 1988</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -226,21 +226,21 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Murray State</t>
+  </si>
+  <si>
     <t>Wichita State</t>
   </si>
   <si>
-    <t>Murray State</t>
-  </si>
-  <si>
     <t>Vanderbilt</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>NC State</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -259,37 +259,37 @@
     <t>https://www.basketball-reference.com/players/o/okogijo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/wainris01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/biyombi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/wainris01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/paulch01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bookede01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/p/payneca01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/shamela01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/p/payneca01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/leesa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/rosste01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/warretj01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/r/rosste01.html</t>
+    <t>https://www.basketball-reference.com/players/d/duranke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/bazleda01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/d/duranke01.html</t>
   </si>
 </sst>
 </file>
@@ -878,28 +878,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>81</v>
@@ -910,31 +913,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>82</v>
@@ -1015,19 +1015,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1036,7 +1036,7 @@
         <v>57</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
         <v>70</v>
@@ -1050,19 +1050,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1071,7 +1071,7 @@
         <v>57</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>71</v>
@@ -1120,19 +1120,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
@@ -1141,7 +1141,7 @@
         <v>57</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>73</v>
@@ -1155,19 +1155,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1176,7 +1176,7 @@
         <v>57</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
         <v>74</v>
@@ -1189,17 +1189,20 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>35</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1208,7 +1211,10 @@
         <v>57</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>90</v>
@@ -1218,17 +1224,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>55</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -1237,10 +1246,7 @@
         <v>57</v>
       </c>
       <c r="I17">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>91</v>

--- a/rosters/2023/Phoenix/Phoenix.xlsx
+++ b/rosters/2023/Phoenix/Phoenix.xlsx
@@ -52,12 +52,12 @@
     <t>Torrey Craig</t>
   </si>
   <si>
+    <t>Jock Landale</t>
+  </si>
+  <si>
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Jock Landale</t>
-  </si>
-  <si>
     <t>Josh Okogie</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>December 19, 1990</t>
   </si>
   <si>
+    <t>October 25, 1995</t>
+  </si>
+  <si>
     <t>July 23, 1998</t>
   </si>
   <si>
-    <t>October 25, 1995</t>
-  </si>
-  <si>
     <t>September 1, 1998</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>us</t>
   </si>
   <si>
+    <t>au</t>
+  </si>
+  <si>
     <t>bs</t>
   </si>
   <si>
-    <t>au</t>
-  </si>
-  <si>
     <t>ng</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>USC Upstate</t>
   </si>
   <si>
+    <t>Saint Mary's</t>
+  </si>
+  <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Saint Mary's</t>
-  </si>
-  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
@@ -250,10 +250,10 @@
     <t>https://www.basketball-reference.com/players/c/craigto01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/l/landajo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/a/aytonde01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/landajo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/okogijo01.html</t>
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -785,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -794,7 +794,7 @@
         <v>58</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>64</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -820,7 +820,7 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -829,7 +829,7 @@
         <v>59</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>

--- a/rosters/2023/Phoenix/Phoenix.xlsx
+++ b/rosters/2023/Phoenix/Phoenix.xlsx
@@ -46,10 +46,13 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
     <t>Damion Lee</t>
   </si>
   <si>
-    <t>Torrey Craig</t>
+    <t>Josh Okogie</t>
   </si>
   <si>
     <t>Jock Landale</t>
@@ -58,15 +61,12 @@
     <t>Deandre Ayton</t>
   </si>
   <si>
-    <t>Josh Okogie</t>
+    <t>Bismack Biyombo</t>
   </si>
   <si>
     <t>Ish Wainright</t>
   </si>
   <si>
-    <t>Bismack Biyombo</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>Darius Bazley</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -109,24 +109,24 @@
     <t>PF</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-7</t>
+    <t>6-4</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-4</t>
+    <t>6-8</t>
   </si>
   <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-0</t>
   </si>
   <si>
@@ -139,10 +139,13 @@
     <t>6-10</t>
   </si>
   <si>
+    <t>December 19, 1990</t>
+  </si>
+  <si>
     <t>October 21, 1992</t>
   </si>
   <si>
-    <t>December 19, 1990</t>
+    <t>September 1, 1998</t>
   </si>
   <si>
     <t>October 25, 1995</t>
@@ -151,15 +154,12 @@
     <t>July 23, 1998</t>
   </si>
   <si>
-    <t>September 1, 1998</t>
+    <t>August 28, 1992</t>
   </si>
   <si>
     <t>September 12, 1994</t>
   </si>
   <si>
-    <t>August 28, 1992</t>
-  </si>
-  <si>
     <t>May 6, 1985</t>
   </si>
   <si>
@@ -190,22 +190,25 @@
     <t>us</t>
   </si>
   <si>
+    <t>ng</t>
+  </si>
+  <si>
     <t>au</t>
   </si>
   <si>
     <t>bs</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
     <t>cd</t>
   </si>
   <si>
+    <t>USC Upstate</t>
+  </si>
+  <si>
     <t>Drexel, Louisville</t>
   </si>
   <si>
-    <t>USC Upstate</t>
+    <t>Georgia Tech</t>
   </si>
   <si>
     <t>Saint Mary's</t>
@@ -214,9 +217,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>Georgia Tech</t>
-  </si>
-  <si>
     <t>Baylor</t>
   </si>
   <si>
@@ -244,10 +244,13 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/c/craigto01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/leeda03.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/craigto01.html</t>
+    <t>https://www.basketball-reference.com/players/o/okogijo01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/l/landajo01.html</t>
@@ -256,13 +259,10 @@
     <t>https://www.basketball-reference.com/players/a/aytonde01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/o/okogijo01.html</t>
+    <t>https://www.basketball-reference.com/players/b/biyombi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/wainris01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/b/biyombi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/paulch01.html</t>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -715,7 +715,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -750,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -773,19 +773,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
       </c>
       <c r="F4">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -794,7 +794,7 @@
         <v>58</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>64</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -817,10 +817,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -829,7 +829,7 @@
         <v>59</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -843,19 +843,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -878,31 +878,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>81</v>
@@ -913,28 +910,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
       <c r="F8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>82</v>
@@ -986,10 +986,10 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>206</v>
@@ -1056,10 +1056,10 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12">
         <v>190</v>
@@ -1126,10 +1126,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>206</v>
@@ -1161,10 +1161,10 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>220</v>
@@ -1196,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
@@ -1234,7 +1234,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>208</v>
